--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-C5ar2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/C3-C5ar2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H2">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J2">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -552,28 +552,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>22.017381</v>
+        <v>0.008059999999999999</v>
       </c>
       <c r="N2">
-        <v>66.052143</v>
+        <v>0.02418</v>
       </c>
       <c r="O2">
-        <v>0.9972899807149549</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="P2">
-        <v>0.9972899807149552</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="Q2">
-        <v>764.883705853095</v>
+        <v>0.0007790339266666666</v>
       </c>
       <c r="R2">
-        <v>6883.953352677856</v>
+        <v>0.007011305339999999</v>
       </c>
       <c r="S2">
-        <v>0.1822315411656126</v>
+        <v>8.919504769096897E-05</v>
       </c>
       <c r="T2">
-        <v>0.1822315411656127</v>
+        <v>8.919504769096897E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>34.739995</v>
+        <v>0.09665433333333333</v>
       </c>
       <c r="H3">
-        <v>104.219985</v>
+        <v>0.289963</v>
       </c>
       <c r="I3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="J3">
-        <v>0.1827267341390227</v>
+        <v>0.0006230336790718351</v>
       </c>
       <c r="K3">
         <v>2</v>
@@ -620,27 +620,27 @@
         <v>0.144719</v>
       </c>
       <c r="O3">
-        <v>0.002185043545356092</v>
+        <v>0.8568375182801556</v>
       </c>
       <c r="P3">
-        <v>0.002185043545356093</v>
+        <v>0.8568375182801555</v>
       </c>
       <c r="Q3">
-        <v>1.675845778801667</v>
+        <v>0.00466257282188889</v>
       </c>
       <c r="R3">
-        <v>15.082612009215</v>
+        <v>0.041963155397</v>
       </c>
       <c r="S3">
-        <v>0.0003992658709944701</v>
+        <v>0.0005338386313808661</v>
       </c>
       <c r="T3">
-        <v>0.0003992658709944702</v>
+        <v>0.000533838631380866</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,55 +649,55 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4">
+        <v>154.8642143333334</v>
+      </c>
+      <c r="H4">
+        <v>464.5926430000001</v>
+      </c>
+      <c r="I4">
+        <v>0.9982544794956518</v>
+      </c>
+      <c r="J4">
+        <v>0.9982544794956519</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>0.6666666666666666</v>
       </c>
-      <c r="G4">
-        <v>34.739995</v>
-      </c>
-      <c r="H4">
-        <v>104.219985</v>
-      </c>
-      <c r="I4">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="J4">
-        <v>0.1827267341390227</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>0.01159</v>
+        <v>0.008059999999999999</v>
       </c>
       <c r="N4">
-        <v>0.03477</v>
+        <v>0.02418</v>
       </c>
       <c r="O4">
-        <v>0.0005249757396888544</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="P4">
-        <v>0.0005249757396888546</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="Q4">
-        <v>0.40263654205</v>
+        <v>1.248205567526667</v>
       </c>
       <c r="R4">
-        <v>3.623728878450001</v>
+        <v>11.23385010774</v>
       </c>
       <c r="S4">
-        <v>9.592710241556207E-05</v>
+        <v>0.142912588672549</v>
       </c>
       <c r="T4">
-        <v>9.592710241556209E-05</v>
+        <v>0.1429125886725491</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -720,16 +720,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>154.8642143333333</v>
+        <v>154.8642143333334</v>
       </c>
       <c r="H5">
-        <v>464.592643</v>
+        <v>464.5926430000001</v>
       </c>
       <c r="I5">
-        <v>0.8145606273154508</v>
+        <v>0.9982544794956518</v>
       </c>
       <c r="J5">
-        <v>0.8145606273154506</v>
+        <v>0.9982544794956519</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -738,33 +738,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>22.017381</v>
+        <v>0.04823966666666667</v>
       </c>
       <c r="N5">
-        <v>66.052143</v>
+        <v>0.144719</v>
       </c>
       <c r="O5">
-        <v>0.9972899807149549</v>
+        <v>0.8568375182801556</v>
       </c>
       <c r="P5">
-        <v>0.9972899807149552</v>
+        <v>0.8568375182801555</v>
       </c>
       <c r="Q5">
-        <v>3409.704410242661</v>
+        <v>7.470598078035225</v>
       </c>
       <c r="R5">
-        <v>30687.33969218395</v>
+        <v>67.23538270231701</v>
       </c>
       <c r="S5">
-        <v>0.8123531523065874</v>
+        <v>0.8553418908231029</v>
       </c>
       <c r="T5">
-        <v>0.8123531523065876</v>
+        <v>0.8553418908231029</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,7 +773,7 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -782,16 +782,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>154.8642143333333</v>
+        <v>0.174137</v>
       </c>
       <c r="H6">
-        <v>464.592643</v>
+        <v>0.522411</v>
       </c>
       <c r="I6">
-        <v>0.8145606273154508</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J6">
-        <v>0.8145606273154506</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -800,33 +800,33 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.04823966666666667</v>
+        <v>0.008059999999999999</v>
       </c>
       <c r="N6">
-        <v>0.144719</v>
+        <v>0.02418</v>
       </c>
       <c r="O6">
-        <v>0.002185043545356092</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="P6">
-        <v>0.002185043545356093</v>
+        <v>0.1431624817198444</v>
       </c>
       <c r="Q6">
-        <v>7.470598078035223</v>
+        <v>0.00140354422</v>
       </c>
       <c r="R6">
-        <v>67.23538270231701</v>
+        <v>0.01263189798</v>
       </c>
       <c r="S6">
-        <v>0.001779850441016835</v>
+        <v>0.0001606979996043867</v>
       </c>
       <c r="T6">
-        <v>0.001779850441016835</v>
+        <v>0.0001606979996043868</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,7 +835,7 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -844,232 +844,46 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>154.8642143333333</v>
+        <v>0.174137</v>
       </c>
       <c r="H7">
-        <v>464.592643</v>
+        <v>0.522411</v>
       </c>
       <c r="I7">
-        <v>0.8145606273154508</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="J7">
-        <v>0.8145606273154506</v>
+        <v>0.001122486825276316</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M7">
-        <v>0.01159</v>
+        <v>0.04823966666666667</v>
       </c>
       <c r="N7">
-        <v>0.03477</v>
+        <v>0.144719</v>
       </c>
       <c r="O7">
-        <v>0.0005249757396888544</v>
+        <v>0.8568375182801556</v>
       </c>
       <c r="P7">
-        <v>0.0005249757396888546</v>
+        <v>0.8568375182801555</v>
       </c>
       <c r="Q7">
-        <v>1.794876244123334</v>
+        <v>0.008400310834333334</v>
       </c>
       <c r="R7">
-        <v>16.15388619711</v>
+        <v>0.07560279750900001</v>
       </c>
       <c r="S7">
-        <v>0.000427624567846346</v>
+        <v>0.0009617888256719291</v>
       </c>
       <c r="T7">
-        <v>0.0004276245678463461</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H8">
-        <v>1.54718</v>
-      </c>
-      <c r="I8">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J8">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K8">
-        <v>2</v>
-      </c>
-      <c r="L8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M8">
-        <v>22.017381</v>
-      </c>
-      <c r="N8">
-        <v>66.052143</v>
-      </c>
-      <c r="O8">
-        <v>0.9972899807149549</v>
-      </c>
-      <c r="P8">
-        <v>0.9972899807149552</v>
-      </c>
-      <c r="Q8">
-        <v>11.35495051186</v>
-      </c>
-      <c r="R8">
-        <v>102.19455460674</v>
-      </c>
-      <c r="S8">
-        <v>0.002705287242754952</v>
-      </c>
-      <c r="T8">
-        <v>0.002705287242754953</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>3</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H9">
-        <v>1.54718</v>
-      </c>
-      <c r="I9">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J9">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K9">
-        <v>2</v>
-      </c>
-      <c r="L9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M9">
-        <v>0.04823966666666667</v>
-      </c>
-      <c r="N9">
-        <v>0.144719</v>
-      </c>
-      <c r="O9">
-        <v>0.002185043545356092</v>
-      </c>
-      <c r="P9">
-        <v>0.002185043545356093</v>
-      </c>
-      <c r="Q9">
-        <v>0.02487848249111111</v>
-      </c>
-      <c r="R9">
-        <v>0.22390634242</v>
-      </c>
-      <c r="S9">
-        <v>5.927233344787224E-06</v>
-      </c>
-      <c r="T9">
-        <v>5.927233344787224E-06</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>3</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.5157266666666667</v>
-      </c>
-      <c r="H10">
-        <v>1.54718</v>
-      </c>
-      <c r="I10">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="J10">
-        <v>0.002712638545526686</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M10">
-        <v>0.01159</v>
-      </c>
-      <c r="N10">
-        <v>0.03477</v>
-      </c>
-      <c r="O10">
-        <v>0.0005249757396888544</v>
-      </c>
-      <c r="P10">
-        <v>0.0005249757396888546</v>
-      </c>
-      <c r="Q10">
-        <v>0.005977272066666667</v>
-      </c>
-      <c r="R10">
-        <v>0.0537954486</v>
-      </c>
-      <c r="S10">
-        <v>1.42406942694637E-06</v>
-      </c>
-      <c r="T10">
-        <v>1.424069426946371E-06</v>
+        <v>0.0009617888256719293</v>
       </c>
     </row>
   </sheetData>
